--- a/static/ducoz-review.xlsx
+++ b/static/ducoz-review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23865" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="多泽跨境-查邮箱" sheetId="1" r:id="rId1"/>
@@ -103,50 +103,50 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,46 +555,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,13 +615,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -633,10 +633,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -651,60 +651,59 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1091,15 +1090,17 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
+    <col min="4" max="4" width="9.375"/>
     <col min="5" max="6" width="21.25" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1155,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>29.99</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1178,7 +1179,7 @@
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
@@ -1186,23 +1187,26 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
       <formula1>"亚马逊,沃尔玛,速卖通,阿里国际站,易贝,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B1048576">
+      <formula1>"美国,日本,加拿大,巴西,墨西哥,英国,德国,法国,西班牙,意大利,荷兰,印度,澳大利亚,土耳其"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"美元,欧元,日元,加元"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>"免评,rating,feedback,review,点赞 &amp; QA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"美元,欧元,日元,加元"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B1048576">
-      <formula1>"美国,日本,加拿大,巴西,墨西哥,英国,德国,法国,西班牙,意大利,荷兰,印度,澳大利亚,土耳其"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" display="https://www.amazon.com/Touchscreen-Pressure-Waterproof-Pedometer-Compatible/dp/B0BKSKMXGX/ref=sxin_15_pa_sp_search_thematic_sspa?content-id=amzn1.sym.f0c5ad8f-c1b9-48f0-8868-482b84b2d5eb%3Aamzn1.sym.f0c5ad8f-c1b9-48f0-8868-482b84b2d5eb&amp;cv_ct_cx=activity+trackers+and+smartwatches&amp;keywords=activity+trackers+and+smartwatches&amp;pd_rd_i=B0BKSKMXGX&amp;pd_rd_r=4cc2bcc1-b62a-4276-b889-e1b4584f859b&amp;pd_rd_w=6yMP4&amp;pd_rd_wg=dw5O7&amp;pf_rd_p=f0c5ad8f-c1b9-48f0-8868-482b84b2d5eb&amp;pf_rd_r=739WEZRA4P17Z494YXWR&amp;qid=1675854767&amp;sr=1-3-a73d1c8c-2fd2-4f19-aa41-2df022bcb241-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExOVI3OFdPV1FPMEZOJmVuY3J5cHRlZElkPUEwNzIwNzIzMkRFVlhONDkzTVcxQSZlbmNyeXB0ZWRBZElkPUEwNTgwOTY2MlpRNDUwWU4xOE4zRCZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="K2" r:id="rId2" display="https://m.media-amazon.com/images/I/61uR6U0-ZAL.__AC_SX300_SY300_QL70_FMwebp_.jpg"/>
+    <hyperlink ref="K2" r:id="rId2" display="https://m.media-amazon.com/images/I/61uR6U0-ZAL.__AC_SX300_SY300_QL70_FMwebp_.jpg" tooltip="https://m.media-amazon.com/images/I/61uR6U0-ZAL.__AC_SX300_SY300_QL70_FMwebp_.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
